--- a/docs/画面項目定義書/mo_instance_type_deteil_edit.xlsx
+++ b/docs/画面項目定義書/mo_instance_type_deteil_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63865636-DD23-4C44-A16F-952AB067F9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06166EF7-9EB6-41C3-9F37-583FA30418A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>日本工学院</t>
   </si>
@@ -105,41 +105,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>編集ボタン押下後、入力が可能になり、
-表示が更新される</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>編集ボタン押下後、入力が可能になり、
-表示が更新される</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>インスタンスタイプ詳細</t>
     <rPh sb="9" eb="11">
       <t>ショウサイ</t>
@@ -244,6 +209,77 @@
     <t>インスタンスタイプ詳細編集モーダル</t>
     <rPh sb="9" eb="13">
       <t>ショウサイヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプオブジェクトより</t>
+  </si>
+  <si>
+    <t>インスタンスタイプオブジェクトより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>・インスタンスタイプオブジェクトから取得して表示
+・編集ボタン押下後、入力が可能になり、
+表示が更新される</t>
+    <rPh sb="26" eb="28">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>保存ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力内容を確定し、編集モードを終了</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -550,7 +586,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +683,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1098,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1165,7 +1210,7 @@
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="A6" s="37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="11"/>
@@ -1218,7 +1263,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="34"/>
@@ -1261,157 +1306,163 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24">
+    <row r="12" spans="1:7" ht="13">
       <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="26">
+      <c r="B12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="35" t="s">
+      <c r="B13" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="13">
+      <c r="C13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" ht="52">
       <c r="A14" s="24">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="24">
+      <c r="B14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" ht="52">
       <c r="A16" s="24">
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:7" ht="24">
+        <v>34</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="21">
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13">
+        <v>26</v>
+      </c>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" ht="52">
       <c r="A18" s="24">
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="24">
+      <c r="G18" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="21">
         <v>11</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="28" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13">
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" ht="52">
       <c r="A20" s="24">
         <v>12</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="E20" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="G20" s="35" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="13">
       <c r="A21" s="21">
